--- a/biology/Zoologie/Cadillacs_et_Dinosaures/Cadillacs_et_Dinosaures.xlsx
+++ b/biology/Zoologie/Cadillacs_et_Dinosaures/Cadillacs_et_Dinosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cadillacs et Dinosaures (Cadillacs and Dinosaurs) est une série télévisée d'animation en treize épisodes de 22 minutes produite par Nelvana, basée sur le comics Chroniques de l'ère Xenozoïque, et diffusée du 18 septembre 1993 au 28 janvier 1994 sur le réseau CBS.
 En France, elle a été diffusée à partir du 6 avril 1994 sur M6 dans M6 Kid, et au Québec à partir du 2 décembre 1994 à Super Écran.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les pilleurs
@@ -582,7 +598,9 @@
           <t>Voix françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Decoster : Jack Tenrec
 Odile Schmitt : Hannah Dundee
@@ -591,7 +609,7 @@
 Marc Moro : Hammer
 Antoine Tomé : Nok
 Olivier Korol
- Source et légende : version française (VF) sur RS Doublage[1]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
